--- a/Outputs/PtX_demand_MT.xlsx
+++ b/Outputs/PtX_demand_MT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -502,17 +502,23 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>1.827624446796205e-05</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>4.101128240432117e-10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.162994137005741e-06</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -521,23 +527,17 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>1.827624446796205e-05</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>4.101128240432117e-10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.162994137005741e-06</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -556,7 +556,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -575,7 +575,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -584,17 +584,21 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>6.452553999631451e-06</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>8.397989397361688e-07</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -603,21 +607,17 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>6.452553999631451e-06</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>8.397989397361688e-07</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -626,17 +626,23 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.000346064562203222</v>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0.0001757780853667028</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0.0005524486940619629</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -645,23 +651,17 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.000346064562203222</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>0.0001757780853667028</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>0.0005524486940619629</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -689,17 +689,25 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.0003707933606708154</v>
+      </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>4.101128240432117e-10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0001817808784434447</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0.0005524486940619629</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -708,17 +716,23 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>8.727433796592085e-05</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>3.433097310043139e-08</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.358350436273957e-06</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -727,23 +741,17 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>8.727433796592085e-05</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>3.433097310043139e-08</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.358350436273957e-06</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -762,7 +770,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -771,17 +779,21 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>3.285836061700991e-11</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>2.22295410110442e-12</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -791,12 +803,12 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>3.285836061700991e-11</v>
+        <v>7.710515658804638e-06</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>2.22295410110442e-12</v>
+        <v>1.528587009732526e-06</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -804,7 +816,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -813,21 +825,17 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>7.710515658804638e-06</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>1.528587009732526e-06</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -836,17 +844,23 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.0001594408980537171</v>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.0001150800479230624</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0.000625142156911351</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -855,23 +869,17 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.0001594408980537171</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>0.0001150800479230624</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>0.000625142156911351</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -890,7 +898,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -899,17 +907,25 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0.0002544257845368032</v>
+      </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>3.433097310043139e-08</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.000123966987592023</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0.000625142156911351</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -918,17 +934,23 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0001213175349813206</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>5.818823410047024e-08</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.169551836969147e-05</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -937,23 +959,17 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0001213175349813206</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>5.818823410047024e-08</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.169551836969147e-05</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -972,7 +988,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -981,17 +997,21 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>3.847815179239901e-10</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>5.086557031515447e-11</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1001,12 +1021,12 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>3.847815179239901e-10</v>
+        <v>1.424394012031528e-06</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>5.086557031515447e-11</v>
+        <v>4.451596508182899e-07</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1014,7 +1034,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1024,20 +1044,22 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>1.424394012031528e-06</v>
+        <v>1.357403602652891e-12</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>4.451596508182899e-07</v>
+        <v>1.95160571120915e-12</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>4.283859938684607e-11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1047,22 +1069,22 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>1.357403602652891e-12</v>
+        <v>2.131509547760184e-05</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>1.95160571120915e-12</v>
+        <v>2.958439156361175e-05</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>4.283859938684607e-11</v>
+        <v>0.0008905614270451276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1071,23 +1093,17 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>2.131509547760184e-05</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>2.958439156361175e-05</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>0.0008905614270451276</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1106,7 +1122,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1115,12 +1131,20 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0.0001440574106098755</v>
+      </c>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>5.818823410047024e-08</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.172512240129754e-05</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>0.000890561469883727</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_MT.xlsx
+++ b/Outputs/PtX_demand_MT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -607,17 +607,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>7.03991754360106e-05</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>3.691412585452613e-06</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -626,23 +630,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.000346064562203222</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>0.0001757780853667028</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>0.0005524486940619629</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -651,17 +649,25 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.000346064562203222</v>
+      </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>0.0011221082647848</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0001757780853667028</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>0.0005524486940619629</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -670,17 +676,25 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.003325367738937833</v>
+      </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>0.0102554645064325</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0011018500620336</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0.005409986315309055</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -689,69 +703,63 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>0.0003707933606708154</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>4.101128240432117e-10</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0001817808784434447</v>
-      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>0.0005524486940619629</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>8.727433796592085e-05</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>3.433097310043139e-08</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7.358350436273957e-06</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0.003766560275044659</v>
+      </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0.01137757318133012</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.001287322353062497</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0.005962435009371018</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -760,17 +768,23 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>8.727433796592085e-05</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>3.433097310043139e-08</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.358350436273957e-06</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -779,21 +793,17 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>3.285836061700991e-11</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>2.22295410110442e-12</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -802,21 +812,17 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>7.710515658804638e-06</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>1.528587009732526e-06</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -825,17 +831,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>3.285836061700991e-11</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>2.22295410110442e-12</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -845,22 +855,20 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.0001594408980537171</v>
+        <v>7.710515658804638e-06</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0001150800479230624</v>
+        <v>1.528587009732526e-06</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0.000625142156911351</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -869,17 +877,21 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>3.887300101110755e-05</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>3.895215178152039e-06</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -898,7 +910,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -908,14 +920,14 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.0002544257845368032</v>
+        <v>0.0001594408980537171</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>3.433097310043139e-08</v>
+        <v>0.0013660064530657</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000123966987592023</v>
+        <v>0.0001150800479230624</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
@@ -925,36 +937,38 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0001213175349813206</v>
+        <v>0.0009603169320751703</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>5.818823410047024e-08</v>
+        <v>0.0096689867292966</v>
       </c>
       <c r="I22" t="n">
-        <v>1.169551836969147e-05</v>
+        <v>0.000487755378613</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0.005248161989956104</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -969,11 +983,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -988,30 +1002,34 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>3.847815179239901e-10</v>
+        <v>0.001253615717623081</v>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>0.0110350275133354</v>
+      </c>
       <c r="I25" t="n">
-        <v>5.086557031515447e-11</v>
+        <v>0.0006156175813831751</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0.005873304146867454</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1021,12 +1039,14 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>1.424394012031528e-06</v>
+        <v>0.0001213175349813206</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>5.818823410047024e-08</v>
+      </c>
       <c r="I26" t="n">
-        <v>4.451596508182899e-07</v>
+        <v>1.169551836969147e-05</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1034,7 +1054,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1043,23 +1063,17 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>1.357403602652891e-12</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>1.95160571120915e-12</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>4.283859938684607e-11</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1068,23 +1082,17 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>2.131509547760184e-05</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>2.958439156361175e-05</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>0.0008905614270451276</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1093,17 +1101,21 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>3.847815179239901e-10</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>5.086557031515447e-11</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1112,17 +1124,21 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>1.424394012031528e-06</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>4.451596508182899e-07</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1132,18 +1148,160 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>0.0001440574106098755</v>
+        <v>2.84332898097902e-06</v>
       </c>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
-        <v>5.818823410047024e-08</v>
-      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>4.172512240129754e-05</v>
+        <v>1.485254891157024e-06</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>0.000890561469883727</v>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>1.357403602652891e-12</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>5.262851685878789e-11</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.95160571120915e-12</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>4.283859938684607e-11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>2.131509547760184e-05</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>0.0017891741436655</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.958439156361175e-05</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>0.0008905614270451276</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>8.481940484330691e-05</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>0.0087685262034002</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8.750451470732252e-05</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>0.004892386530442252</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>0.0002317201444341614</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>0.01055775858792832</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0001307148919997771</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0.005782948000325978</v>
       </c>
     </row>
   </sheetData>
